--- a/CHGG.xlsx
+++ b/CHGG.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10205"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28712"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9907474b3756498a/Value Investing/"/>
@@ -10,13 +10,13 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="880" documentId="8_{F49DBA6B-FE7C-7B45-B7BC-3C72A7F54071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AE20439-1EB1-2D42-896A-2D4093E31399}"/>
   <bookViews>
-    <workbookView xWindow="30080" yWindow="-33340" windowWidth="30080" windowHeight="31860" activeTab="1" xr2:uid="{3A446ED8-7B1C-434A-AEEA-C1404084F8D5}"/>
+    <workbookView xWindow="30080" yWindow="-33340" windowWidth="30080" windowHeight="31860" firstSheet="1" activeTab="1" xr2:uid="{3A446ED8-7B1C-434A-AEEA-C1404084F8D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -153,222 +153,222 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="126">
   <si>
+    <t>Segments</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Comptition</t>
+  </si>
+  <si>
     <t>Price</t>
   </si>
   <si>
+    <t>Chegg Study</t>
+  </si>
+  <si>
+    <t>AI / subject matter expert study, or chatgpt</t>
+  </si>
+  <si>
+    <t>Will shrink to close to 0</t>
+  </si>
+  <si>
+    <t>Stiff / impossible</t>
+  </si>
+  <si>
     <t>Shares</t>
   </si>
   <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Chegg Writing</t>
+  </si>
+  <si>
+    <t>Plagiarism detection, grammar, writing fluency, etc. So grammarly / jenni.ai</t>
+  </si>
+  <si>
     <t>MC</t>
   </si>
   <si>
+    <t>Chegg Math</t>
+  </si>
+  <si>
+    <t>Chatgpt for math</t>
+  </si>
+  <si>
     <t>Cash</t>
   </si>
   <si>
+    <t>Chegg Study Pack</t>
+  </si>
+  <si>
+    <t>Cheg study + writing and math</t>
+  </si>
+  <si>
     <t>Debt</t>
   </si>
   <si>
+    <t>Busuu</t>
+  </si>
+  <si>
+    <t>Language learning platform, with live tutors and community to practice alongside</t>
+  </si>
+  <si>
+    <t>Only thing that is not directly rape-able by chatgpt</t>
+  </si>
+  <si>
+    <t>Duolingo</t>
+  </si>
+  <si>
     <t>EV</t>
   </si>
   <si>
+    <t>Chegg Skills</t>
+  </si>
+  <si>
+    <t>Specific skills for jobs.</t>
+  </si>
+  <si>
+    <t>Schools already have a track. So only really useful for ppl that can't afford, or could not, go to school</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Ads</t>
+  </si>
+  <si>
+    <t>Who wants to have a max unique impression of 6M users? Would be low af CPM or else!</t>
+  </si>
+  <si>
+    <t>Doesn't matter, no money here.</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
+  </si>
+  <si>
     <t>Shrinking/dying business</t>
   </si>
   <si>
-    <t>Segments</t>
-  </si>
-  <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Q424</t>
+    <t>Acquisitions</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>What</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Mathway</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Thinkful</t>
+  </si>
+  <si>
+    <t>Coding bootcamp</t>
+  </si>
+  <si>
+    <t>Now is "Chegg Skills"</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>889.4 million in losses</t>
+  </si>
+  <si>
+    <t>Since 2005, have not been profitable.</t>
+  </si>
+  <si>
+    <t>Q120</t>
+  </si>
+  <si>
+    <t>Q220</t>
+  </si>
+  <si>
+    <t>Q320</t>
+  </si>
+  <si>
+    <t>Q420</t>
+  </si>
+  <si>
+    <t>Q121</t>
+  </si>
+  <si>
+    <t>Q221</t>
+  </si>
+  <si>
+    <t>Q321</t>
+  </si>
+  <si>
+    <t>Q421</t>
+  </si>
+  <si>
+    <t>Q122</t>
+  </si>
+  <si>
+    <t>Q222</t>
+  </si>
+  <si>
+    <t>Q322</t>
+  </si>
+  <si>
+    <t>Q422</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Subscriptions</t>
+  </si>
+  <si>
+    <t>Subscription Growth</t>
   </si>
   <si>
     <t>Revenue</t>
   </si>
   <si>
-    <t>Q122</t>
-  </si>
-  <si>
-    <t>Q222</t>
-  </si>
-  <si>
-    <t>Q322</t>
-  </si>
-  <si>
-    <t>Q422</t>
-  </si>
-  <si>
-    <t>Q123</t>
-  </si>
-  <si>
-    <t>Q223</t>
-  </si>
-  <si>
-    <t>Q323</t>
-  </si>
-  <si>
-    <t>Q423</t>
-  </si>
-  <si>
-    <t>Q120</t>
-  </si>
-  <si>
-    <t>Q220</t>
-  </si>
-  <si>
-    <t>Q320</t>
-  </si>
-  <si>
-    <t>Q420</t>
-  </si>
-  <si>
-    <t>Q121</t>
-  </si>
-  <si>
-    <t>Q221</t>
-  </si>
-  <si>
-    <t>Q321</t>
-  </si>
-  <si>
-    <t>Q421</t>
-  </si>
-  <si>
-    <t>Q124</t>
-  </si>
-  <si>
-    <t>Q224</t>
-  </si>
-  <si>
-    <t>Q324</t>
-  </si>
-  <si>
-    <t>Q125</t>
-  </si>
-  <si>
-    <t>Q225</t>
-  </si>
-  <si>
-    <t>Q325</t>
-  </si>
-  <si>
-    <t>Q425</t>
-  </si>
-  <si>
-    <t>Subscriptions</t>
-  </si>
-  <si>
-    <t>Subscription Growth</t>
-  </si>
-  <si>
-    <t>Chegg Study</t>
-  </si>
-  <si>
-    <t>Chegg Study Pack</t>
-  </si>
-  <si>
-    <t>Cheg study + writing and math</t>
-  </si>
-  <si>
-    <t>Chegg Writing</t>
-  </si>
-  <si>
-    <t>Plagiarism detection, grammar, writing fluency, etc. So grammarly / jenni.ai</t>
-  </si>
-  <si>
-    <t>Chegg Math</t>
-  </si>
-  <si>
-    <t>Chatgpt for math</t>
-  </si>
-  <si>
-    <t>AI / subject matter expert study, or chatgpt</t>
-  </si>
-  <si>
-    <t>Busuu</t>
-  </si>
-  <si>
-    <t>Language learning platform, with live tutors and community to practice alongside</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Will shrink to close to 0</t>
-  </si>
-  <si>
-    <t>Only thing that is not directly rape-able by chatgpt</t>
-  </si>
-  <si>
-    <t>Chegg Skills</t>
-  </si>
-  <si>
-    <t>Specific skills for jobs.</t>
-  </si>
-  <si>
-    <t>Schools already have a track. So only really useful for ppl that can't afford, or could not, go to school</t>
-  </si>
-  <si>
-    <t>Ads</t>
-  </si>
-  <si>
-    <t>Who wants to have a max unique impression of 6M users? Would be low af CPM or else!</t>
-  </si>
-  <si>
-    <t>Comptition</t>
-  </si>
-  <si>
-    <t>Stiff / impossible</t>
-  </si>
-  <si>
-    <t>Duolingo</t>
-  </si>
-  <si>
-    <t>School</t>
-  </si>
-  <si>
-    <t>Doesn't matter, no money here.</t>
-  </si>
-  <si>
-    <t>Acquisitions</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>889.4 million in losses</t>
-  </si>
-  <si>
-    <t>Since 2005, have not been profitable.</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Mathway</t>
-  </si>
-  <si>
-    <t>Thinkful</t>
-  </si>
-  <si>
-    <t>What</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>Coding bootcamp</t>
-  </si>
-  <si>
-    <t>Now is "Chegg Skills"</t>
-  </si>
-  <si>
     <t>COGs</t>
   </si>
   <si>
@@ -423,24 +423,48 @@
     <t>Operating Margin</t>
   </si>
   <si>
+    <t>Maturity</t>
+  </si>
+  <si>
     <t>Model NI</t>
   </si>
   <si>
+    <t>ROIC</t>
+  </si>
+  <si>
     <t>Reported NI</t>
   </si>
   <si>
+    <t>Discount Rate</t>
+  </si>
+  <si>
     <t>SBC</t>
   </si>
   <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>NPV cash flow</t>
+  </si>
+  <si>
     <t>D&amp;A</t>
   </si>
   <si>
     <t>D/T</t>
   </si>
   <si>
+    <t>Price CF</t>
+  </si>
+  <si>
+    <t>Spot Price</t>
+  </si>
+  <si>
     <t>Loss contingency</t>
   </si>
   <si>
+    <t>Difference</t>
+  </si>
+  <si>
     <t>Impairment</t>
   </si>
   <si>
@@ -453,6 +477,9 @@
     <t>Lease</t>
   </si>
   <si>
+    <t>Loss sale investments</t>
+  </si>
+  <si>
     <t>Gain on textook library</t>
   </si>
   <si>
@@ -474,6 +501,9 @@
     <t>Prepaids</t>
   </si>
   <si>
+    <t>A/P</t>
+  </si>
+  <si>
     <t>D/R</t>
   </si>
   <si>
@@ -499,43 +529,13 @@
   </si>
   <si>
     <t>Cash Flow</t>
-  </si>
-  <si>
-    <t>A/P</t>
-  </si>
-  <si>
-    <t>Loss sale investments</t>
-  </si>
-  <si>
-    <t>ROIC</t>
-  </si>
-  <si>
-    <t>NPV</t>
-  </si>
-  <si>
-    <t>Maturity</t>
-  </si>
-  <si>
-    <t>Discount Rate</t>
-  </si>
-  <si>
-    <t>Spot Price</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>NPV cash flow</t>
-  </si>
-  <si>
-    <t>Price CF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1084,40 +1084,40 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12">
       <c r="B3" s="6" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K3">
         <v>1.07</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12">
       <c r="B4" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="J4" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K4" s="1">
         <v>105.10899999999999</v>
@@ -1126,42 +1126,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12">
       <c r="B5" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K5" s="1">
         <f>K4*K3</f>
         <v>112.46662999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12">
       <c r="B6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="J6" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K6" s="1">
         <f>161.475+154.249</f>
@@ -1171,21 +1171,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12">
       <c r="B7" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K7" s="1">
         <v>127.34399999999999</v>
@@ -1194,84 +1194,84 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12">
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="K8" s="1">
         <f>+K5-K6+K7</f>
         <v>-75.913369999999986</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12">
       <c r="B9" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
       <c r="B10" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="K10" s="1">
         <f>K6-K7</f>
         <v>188.38</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12">
       <c r="B16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>436</v>
@@ -1280,12 +1280,12 @@
         <v>2022</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="C21">
         <v>100</v>
@@ -1294,12 +1294,12 @@
         <v>2020</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>80</v>
@@ -1308,23 +1308,23 @@
         <v>2019</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
       <c r="B25" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
       <c r="C26" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1339,99 +1339,99 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="AI4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AX42" sqref="AX42"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AX42" sqref="AX42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.875" style="1"/>
     <col min="2" max="2" width="19" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="3"/>
+    <col min="3" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" s="2" customFormat="1">
       <c r="A1"/>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" s="2" customFormat="1">
       <c r="A2"/>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" s="2" customFormat="1">
       <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="AD3" s="2">
         <v>2020</v>
@@ -1497,10 +1497,10 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45">
       <c r="A4" s="3"/>
       <c r="B4" s="8" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="AF4" s="3">
         <v>8.1</v>
@@ -1512,9 +1512,9 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="5" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" s="4" customFormat="1">
       <c r="B5" s="9" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" ref="AG5" si="1">AG4/AF4-1</f>
@@ -1525,16 +1525,16 @@
         <v>-0.1428571428571429</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:45" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" s="12" customFormat="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C8" s="12">
         <v>131.59</v>
@@ -1676,7 +1676,7 @@
         <v>517.2697059733747</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45">
       <c r="B9" s="8" t="s">
         <v>72</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>155.18091179201241</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45">
       <c r="B10" s="8" t="s">
         <v>73</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>362.08879418136229</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45">
       <c r="B11" s="8" t="s">
         <v>74</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>81.627171921260384</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45">
       <c r="B12" s="8" t="s">
         <v>75</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>120.76860767276449</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45">
       <c r="B13" s="8" t="s">
         <v>76</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>138.83395512701503</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45">
       <c r="B14" s="8" t="s">
         <v>77</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>341.2297347210399</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45">
       <c r="B15" s="8" t="s">
         <v>78</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>20.859059460322385</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45">
       <c r="B16" s="8" t="s">
         <v>79</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>-6.1565370627791918</v>
       </c>
     </row>
-    <row r="17" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:113">
       <c r="B17" s="8" t="s">
         <v>80</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>14.702522397543193</v>
       </c>
     </row>
-    <row r="18" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:113">
       <c r="B18" s="8" t="s">
         <v>81</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>2.9405044795086388</v>
       </c>
     </row>
-    <row r="19" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:113">
       <c r="B19" s="8" t="s">
         <v>82</v>
       </c>
@@ -3663,9 +3663,9 @@
         <v>5.9384768704763156</v>
       </c>
     </row>
-    <row r="20" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:113">
       <c r="B20" s="8" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C20" s="3">
         <f>C19/C21</f>
@@ -3769,7 +3769,7 @@
         <v>104.51300000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:113" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:113" s="15" customFormat="1">
       <c r="A21" s="13"/>
       <c r="B21" s="14" t="s">
         <v>83</v>
@@ -3894,7 +3894,7 @@
         <v>-0.97765292355974898</v>
       </c>
     </row>
-    <row r="23" spans="1:113" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:113" s="4" customFormat="1">
       <c r="A23" s="16"/>
       <c r="B23" s="9" t="s">
         <v>84</v>
@@ -4040,7 +4040,7 @@
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:113" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:113" s="4" customFormat="1">
       <c r="A24" s="16"/>
       <c r="B24" s="9" t="s">
         <v>85</v>
@@ -4186,7 +4186,7 @@
         <v>-3.0000000000000027E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:113" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:113" s="4" customFormat="1">
       <c r="A25" s="16"/>
       <c r="B25" s="9" t="s">
         <v>86</v>
@@ -4332,7 +4332,7 @@
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:113" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:113" s="4" customFormat="1">
       <c r="A26" s="16"/>
       <c r="B26" s="9" t="s">
         <v>87</v>
@@ -4478,11 +4478,11 @@
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:113" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:113" s="4" customFormat="1">
       <c r="A27" s="16"/>
       <c r="B27" s="9"/>
     </row>
-    <row r="28" spans="1:113" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:113" s="4" customFormat="1">
       <c r="A28" s="16"/>
       <c r="B28" s="9" t="s">
         <v>88</v>
@@ -4648,7 +4648,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="29" spans="1:113" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:113" s="4" customFormat="1">
       <c r="A29" s="16"/>
       <c r="B29" s="9" t="s">
         <v>89</v>
@@ -4814,7 +4814,7 @@
         <v>4.032530654597441E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:113" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:113" s="4" customFormat="1">
       <c r="A30" s="16"/>
       <c r="B30" s="9" t="s">
         <v>81</v>
@@ -4980,9 +4980,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="34" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:50">
       <c r="B34" s="8" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="V34" s="3">
         <v>188</v>
@@ -5035,17 +5035,17 @@
         <v>-111.36872333754927</v>
       </c>
     </row>
-    <row r="35" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:50">
       <c r="AU35" s="3" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AV35" s="4">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="36" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:50">
       <c r="B36" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AD36" s="3">
         <f t="shared" ref="AD36:AH36" si="74">AD19</f>
@@ -5068,15 +5068,15 @@
         <v>-151.79300000000001</v>
       </c>
       <c r="AU36" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="AV36" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="37" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:50">
       <c r="B37" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AD37" s="3">
         <v>-6.2210000000000001</v>
@@ -5094,15 +5094,15 @@
         <v>-837.06799999999998</v>
       </c>
       <c r="AU37" s="3" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="AV37" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:50">
       <c r="B38" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AD38" s="17">
         <v>84.055000000000007</v>
@@ -5120,23 +5120,23 @@
         <v>84.614000000000004</v>
       </c>
       <c r="AU38" s="3" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="AV38" s="3">
         <f>NPV(AV37,AI19:DI19)</f>
         <v>-209.86992312086494</v>
       </c>
       <c r="AW38" s="3" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="AX38" s="3">
         <f>NPV(AV37,AI65:CD65)</f>
         <v>779.09905394382622</v>
       </c>
     </row>
-    <row r="39" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:50">
       <c r="B39" s="8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="AD39" s="17">
         <v>47.018000000000001</v>
@@ -5154,16 +5154,16 @@
         <v>78.343999999999994</v>
       </c>
       <c r="AU39" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AV39" s="3">
         <f>Main!K4</f>
         <v>105.10899999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:50">
       <c r="B40" s="8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AD40" s="17"/>
       <c r="AF40" s="3">
@@ -5176,23 +5176,23 @@
         <v>143.31899999999999</v>
       </c>
       <c r="AU40" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV40" s="3">
         <f>AV38/AV39</f>
         <v>-1.9966884198390713</v>
       </c>
       <c r="AW40" s="3" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="AX40" s="3">
         <f>AX38/AV39</f>
         <v>7.4122963204276155</v>
       </c>
     </row>
-    <row r="41" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:50">
       <c r="B41" s="8" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="AD41" s="17">
         <f>-20.433+4.286</f>
@@ -5211,7 +5211,7 @@
         <v>-19.515000000000001</v>
       </c>
       <c r="AU41" s="3" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="AV41" s="3">
         <v>1</v>
@@ -5220,9 +5220,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:50">
       <c r="B42" s="8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AD42" s="17"/>
       <c r="AF42" s="3">
@@ -5235,16 +5235,16 @@
         <v>0</v>
       </c>
       <c r="AU42" s="3" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="AV42" s="4">
         <f>AV40/AV41-1</f>
         <v>-2.9966884198390713</v>
       </c>
     </row>
-    <row r="43" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:50">
       <c r="B43" s="8" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="AD43" s="17"/>
       <c r="AF43" s="3">
@@ -5257,9 +5257,9 @@
         <v>677.23900000000003</v>
       </c>
     </row>
-    <row r="44" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:50">
       <c r="B44" s="8" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="AD44" s="17">
         <v>1.2110000000000001</v>
@@ -5277,9 +5277,9 @@
         <v>5.7949999999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:50">
       <c r="B45" s="8" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="AD45" s="17">
         <v>64.572999999999993</v>
@@ -5297,9 +5297,9 @@
         <v>2.1469999999999998</v>
       </c>
     </row>
-    <row r="46" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:50">
       <c r="B46" s="8" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="AD46" s="17">
         <v>4.9009999999999998</v>
@@ -5317,9 +5317,9 @@
         <v>5.8639999999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:50">
       <c r="B47" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="AD47" s="17">
         <v>10</v>
@@ -5338,9 +5338,9 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:50">
       <c r="B48" s="8" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AD48" s="17">
         <v>-1.4530000000000001</v>
@@ -5358,9 +5358,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34">
       <c r="B49" s="8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AD49" s="17">
         <v>15.397</v>
@@ -5378,9 +5378,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34">
       <c r="B50" s="8" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AD50" s="12"/>
       <c r="AF50" s="3">
@@ -5393,9 +5393,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34">
       <c r="B51" s="8" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="AD51" s="12"/>
       <c r="AF51" s="3">
@@ -5408,9 +5408,9 @@
         <v>5.5570000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34">
       <c r="B52" s="8" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="AD52" s="17">
         <v>-0.22700000000000001</v>
@@ -5428,9 +5428,9 @@
         <v>0.65600000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34">
       <c r="B53" s="8" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="AD53" s="17">
         <v>-0.4</v>
@@ -5448,9 +5448,9 @@
         <v>7.7709999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34">
       <c r="B54" s="8" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AD54" s="17">
         <v>5.4189999999999996</v>
@@ -5468,9 +5468,9 @@
         <v>-41.731999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34">
       <c r="B55" s="8" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="AD55" s="17">
         <v>-4.2140000000000004</v>
@@ -5488,7 +5488,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34">
       <c r="B56" s="8" t="s">
         <v>116</v>
       </c>
@@ -5508,9 +5508,9 @@
         <v>-12.375999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34">
       <c r="B57" s="8" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="AD57" s="17">
         <v>12.917999999999999</v>
@@ -5528,9 +5528,9 @@
         <v>-15.885</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34">
       <c r="B58" s="8" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="AD58" s="17">
         <v>22.443999999999999</v>
@@ -5548,9 +5548,9 @@
         <v>47.103000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:34">
       <c r="B59" s="8" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="AD59" s="17">
         <v>-3.9510000000000001</v>
@@ -5568,10 +5568,10 @@
         <v>-7.7850000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:34" s="12" customFormat="1">
       <c r="A60" s="10"/>
       <c r="B60" s="11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD60" s="12">
         <f>SUM(AD37:AD59)</f>
@@ -5594,9 +5594,9 @@
         <v>125.20500000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:34">
       <c r="B61" s="8" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="AD61" s="3">
         <v>81.316999999999993</v>
@@ -5614,10 +5614,10 @@
         <v>74.953000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:34" s="12" customFormat="1">
       <c r="A62" s="10"/>
       <c r="B62" s="11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AD62" s="12">
         <f>AD60-AD61</f>
@@ -5640,9 +5640,9 @@
         <v>50.252000000000038</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:34">
       <c r="B63" s="8" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="AD63" s="3">
         <v>-732.78599999999994</v>
@@ -5660,9 +5660,9 @@
         <v>11.345000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:34">
       <c r="B64" s="8" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="AD64" s="3">
         <v>588.62699999999995</v>
@@ -5680,9 +5680,9 @@
         <v>-109.142</v>
       </c>
     </row>
-    <row r="65" spans="2:82" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:82">
       <c r="B65" s="8" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="AD65" s="3">
         <f>+AD64+AD60+AD63</f>
